--- a/Smarto_Attend/period_attendance_2026-01-11.xlsx
+++ b/Smarto_Attend/period_attendance_2026-01-11.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Daily Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Period Details" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Period Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Student Timeline" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -442,4 +456,310 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Period ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Period Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Students</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Present Students</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Absent Students</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Attendance %</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Average Duration</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mr. Sharma</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Physics</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Physics</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ms. Patel</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Dr. Kumar</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mrs. Gupta</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ms. Roy</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>999</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Test Period</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tester</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>